--- a/biology/Botanique/Ribes_komarovii/Ribes_komarovii.xlsx
+++ b/biology/Botanique/Ribes_komarovii/Ribes_komarovii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Groseillier de Corée (Ribes komarovii) est un arbuste de la famille des grossulariacées originaire d'Asie tempérée.
 Nom chinois : 长白茶
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste caduc, pouvant atteindre 3 m de haut.
 Les feuilles sont généralement trilobées et irrégulièrement crénelées-dentelées.
@@ -547,7 +561,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonina Pojarkova signale à la fois une utilisation ornementale et une utilisation possible des fruits en boisson alcoolisée.
 </t>
@@ -578,7 +594,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbuste est originaire des régions tempérées d'Asie : Sibérie, Chine (Gansu, ouest Hebei, sud-est Heilongjiang, ouest Henan, Jilin, Liaoning, Shaanxi, Shanxi), Corée du Nord.
 Son habitat est forestier ou semi-forestier, de 400 à 2000 m d'altitude.
